--- a/test-data/loginpage1data.xlsx
+++ b/test-data/loginpage1data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +425,9 @@
         <v>act</v>
       </c>
       <c r="H1" t="str">
+        <v>executed</v>
+      </c>
+      <c r="I1" t="str">
         <v>expectedError</v>
       </c>
     </row>
@@ -433,30 +436,1525 @@
         <v>TC_01</v>
       </c>
       <c r="B2" t="str">
-        <v>Login with valid credentials</v>
+        <v>Positive - Valid Login</v>
       </c>
       <c r="C2" t="str">
-        <v>test@example.com</v>
+        <v>admin@yourstore.com</v>
       </c>
       <c r="D2" t="str">
-        <v>password123</v>
-      </c>
-      <c r="E2" t="str">
-        <v>true</v>
+        <v>admin</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G2" t="str">
         <v>Pass</v>
       </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TC_02</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Negative - Invalid Password</v>
+      </c>
+      <c r="C3" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>wrongpassword</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Bnvn</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>TC_03</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Negative - Invalid Email (Unregistered)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>random@email.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TC_04</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Negative - Both Invalid</v>
+      </c>
+      <c r="C5" t="str">
+        <v>wrong@email.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TC_05</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Negative - Empty Email</v>
+      </c>
+      <c r="D6" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Please enter your email</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TC_06</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Negative - Empty Password</v>
+      </c>
+      <c r="C7" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TC_07</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Negative - Both Empty</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Please enter your email</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TC_08</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Functional - Invalid Email Format (No @)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>adminexample.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TC_09</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Functional - Max Length Email (Boundary)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>verylongemailaddresswithmanycharactersjusttocheckthelimitofthisfieldwhichmightbeverylongactually@yourstore.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TC_10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Security - SQL Injection Attempt</v>
+      </c>
+      <c r="C11" t="str">
+        <v>' OR '1'='1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>' OR '1'='1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TC_11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Functional - Email Leading Space</v>
+      </c>
+      <c r="C12" t="str">
+        <v xml:space="preserve"> admin@yourstore.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TC_12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Functional - Email Trailing Space</v>
+      </c>
+      <c r="C13" t="str">
+        <v xml:space="preserve">admin@yourstore.com </v>
+      </c>
+      <c r="D13" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TC_13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Functional - Email Case Insensitivity</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ADMIN@YOURSTORE.COM</v>
+      </c>
+      <c r="D14" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TC_14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Negative - Email Missing TLD</v>
+      </c>
+      <c r="C15" t="str">
+        <v>admin@yourstore</v>
+      </c>
+      <c r="D15" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TC_15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Negative - Email Double @</v>
+      </c>
+      <c r="C16" t="str">
+        <v>admin@@yourstore.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TC_16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Security - XSS Vector in Email</v>
+      </c>
+      <c r="C17" t="str">
+        <v>&lt;script&gt;alert(1)&lt;/script&gt;</v>
+      </c>
+      <c r="D17" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TC_17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Security - Null Byte Injection</v>
+      </c>
+      <c r="C18" t="str">
+        <v>admin@yourstore.com%00</v>
+      </c>
+      <c r="D18" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TC_18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Negative - Password max length</v>
+      </c>
+      <c r="C19" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>ThisIsAVeryLongPasswordThatExceedsNormalLimitsAndShouldProbablyBeRejectedOrTruncatedByTheSystem123456</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TC_19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Functional - Email with sub-addressing</v>
+      </c>
+      <c r="C20" t="str">
+        <v>admin+test@yourstore.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TC_20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Functional - Password Case Sensitivity</v>
+      </c>
+      <c r="C21" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>ADMIN</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TC_21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Security - NoSQL Injection</v>
+      </c>
+      <c r="C22" t="str">
+        <v>{"gt": ""}</v>
+      </c>
+      <c r="D22" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TC_22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Security - LDAP Injection</v>
+      </c>
+      <c r="C23" t="str">
+        <v>*</v>
+      </c>
+      <c r="D23" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TC_23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Security - Template Injection</v>
+      </c>
+      <c r="C24" t="str">
+        <v>{{7*7}}</v>
+      </c>
+      <c r="D24" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TC_24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Format - IP Address Domain</v>
+      </c>
+      <c r="C25" t="str">
+        <v>admin@127.0.0.1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TC_25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Format - Multiple Dots in Email</v>
+      </c>
+      <c r="C26" t="str">
+        <v>admin.name.lastname@yourstore.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TC_26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Format - Underscore in Email</v>
+      </c>
+      <c r="C27" t="str">
+        <v>admin_name@yourstore.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TC_27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Format - Dash in Email</v>
+      </c>
+      <c r="C28" t="str">
+        <v>admin-name@yourstore.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TC_28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Format - Space inside Email</v>
+      </c>
+      <c r="C29" t="str">
+        <v>admin @yourstore.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TC_29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Format - Tab in Email</v>
+      </c>
+      <c r="C30" t="str">
+        <v>admin	@yourstore.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>TC_30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Format - Newline in Email</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">admin
+@yourstore.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TC_31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Format - Password with Tab</v>
+      </c>
+      <c r="C32" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ad	min</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>TC_32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Format - Password with Newline</v>
+      </c>
+      <c r="C33" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v xml:space="preserve">ad
+min</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TC_33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Functional - Password Special Chars</v>
+      </c>
+      <c r="C34" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>!@#$%^&amp;*()</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TC_34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Functional - Password Only Numbers</v>
+      </c>
+      <c r="C35" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>12345678</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>TC_35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Functional - Password Only Spaces</v>
+      </c>
+      <c r="C36" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve">      </v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TC_36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Security - XML Injection</v>
+      </c>
+      <c r="C37" t="str">
+        <v>&lt;!DOCTYPE foo&gt;</v>
+      </c>
+      <c r="D37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TC_37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Security - Header Injection</v>
+      </c>
+      <c r="C38" t="str">
+        <v>admin@yourstore.com%0d%0a</v>
+      </c>
+      <c r="D38" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TC_38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Unicode - Emoji in Email</v>
+      </c>
+      <c r="C39" t="str">
+        <v>admin😊@yourstore.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TC_39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Unicode - Cyrillic Email</v>
+      </c>
+      <c r="C40" t="str">
+        <v>админ@yourstore.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TC_40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Unicode - Password with Emoji</v>
+      </c>
+      <c r="C41" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>admin😊</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TC_41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Functional - Email Numeric Local</v>
+      </c>
+      <c r="C42" t="str">
+        <v>123456@yourstore.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TC_42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Functional - Email Mixed Case</v>
+      </c>
+      <c r="C43" t="str">
+        <v>AdMiN@YoUrStOrE.cOm</v>
+      </c>
+      <c r="D43" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TC_43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Functional - Domain Case Insensitive</v>
+      </c>
+      <c r="C44" t="str">
+        <v>admin@YOURSTORE.COM</v>
+      </c>
+      <c r="D44" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TC_44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Format - Dot at Start of Email</v>
+      </c>
+      <c r="C45" t="str">
+        <v>.admin@yourstore.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TC_45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Format - Dot at End of Local</v>
+      </c>
+      <c r="C46" t="str">
+        <v>admin.@yourstore.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>TC_46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Format - Consecutive Dots</v>
+      </c>
+      <c r="C47" t="str">
+        <v>admin..name@yourstore.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>TC_47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Format - Underscore in Domain</v>
+      </c>
+      <c r="C48" t="str">
+        <v>admin@your_store.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>TC_48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Security - SQLi in Password</v>
+      </c>
+      <c r="C49" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>' OR '1'='1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>TC_49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Security - XSS in Password</v>
+      </c>
+      <c r="C50" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>&lt;script&gt;alert(1)&lt;/script&gt;</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Sorry, you have been blocked</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>TC_50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Boundary - 1 Char Email</v>
+      </c>
+      <c r="C51" t="str">
+        <v>a@b.c</v>
+      </c>
+      <c r="D51" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TC_51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Boundary - 1 Char Password</v>
+      </c>
+      <c r="C52" t="str">
+        <v>admin@yourstore.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>a</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Login was unsuccessful</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>TC_52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Protocol - Javascript URI</v>
+      </c>
+      <c r="C53" t="str">
+        <v>javascript:alert(1)</v>
+      </c>
+      <c r="D53" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>TC_53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Protocol - Mailto URI</v>
+      </c>
+      <c r="C54" t="str">
+        <v>mailto:admin@yourstore.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>TC_54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Negative - Trailing Dot in Domain</v>
+      </c>
+      <c r="C55" t="str">
+        <v>admin@yourstore.com.</v>
+      </c>
+      <c r="D55" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>TC_55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Negative - Missing @</v>
+      </c>
+      <c r="C56" t="str">
+        <v>adminyourstore.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>TC_56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Negative - Long Domain</v>
+      </c>
+      <c r="C57" t="str">
+        <v>admin@yourstore.commmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmmm</v>
+      </c>
+      <c r="D57" t="str">
+        <v>admin</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Login was unsuccessful</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/loginpage1data.xlsx
+++ b/test-data/loginpage1data.xlsx
@@ -451,10 +451,10 @@
         <v>Fail</v>
       </c>
       <c r="G2" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>Fail</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="str">
         <v>Login was unsuccessful</v>
@@ -506,7 +506,7 @@
         <v>Fail</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <v>Login was unsuccessful</v>
@@ -535,7 +535,7 @@
         <v>Fail</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <v>Login was unsuccessful</v>
@@ -561,7 +561,7 @@
         <v>Fail</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="str">
         <v>Please enter your email</v>
@@ -587,7 +587,7 @@
         <v>Fail</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="str">
         <v>Login was unsuccessful</v>
@@ -610,7 +610,7 @@
         <v>Fail</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <v>Please enter your email</v>
@@ -639,7 +639,7 @@
         <v>Fail</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>Fail</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="str">
         <v>Login was unsuccessful</v>
@@ -694,7 +694,7 @@
         <v>Fail</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -717,10 +717,10 @@
         <v>Pass</v>
       </c>
       <c r="G12" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -743,10 +743,10 @@
         <v>Pass</v>
       </c>
       <c r="G13" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -769,10 +769,10 @@
         <v>Pass</v>
       </c>
       <c r="G14" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -824,7 +824,7 @@
         <v>Fail</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>Fail</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         <v>Fail</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -902,7 +902,7 @@
         <v>Fail</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="str">
         <v>Login was unsuccessful</v>
@@ -931,7 +931,7 @@
         <v>Fail</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="str">
         <v>Login was unsuccessful</v>
@@ -960,7 +960,7 @@
         <v>Fail</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="str">
         <v>Login was unsuccessful</v>
@@ -989,7 +989,7 @@
         <v>Fail</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1015,7 +1015,7 @@
         <v>Fail</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1041,7 +1041,7 @@
         <v>Fail</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1067,7 +1067,7 @@
         <v>Fail</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="str">
         <v>Login was unsuccessful</v>
@@ -1096,7 +1096,7 @@
         <v>Fail</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="str">
         <v>Login was unsuccessful</v>
@@ -1125,7 +1125,7 @@
         <v>Fail</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="str">
         <v>Login was unsuccessful</v>
@@ -1154,7 +1154,7 @@
         <v>Fail</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="str">
         <v>Login was unsuccessful</v>
@@ -1183,7 +1183,7 @@
         <v>Fail</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1209,7 +1209,7 @@
         <v>Fail</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1236,7 +1236,7 @@
         <v>Fail</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1262,7 +1262,7 @@
         <v>Fail</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="str">
         <v>Login was unsuccessful</v>
@@ -1292,7 +1292,7 @@
         <v>Fail</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="str">
         <v>Login was unsuccessful</v>
@@ -1321,7 +1321,7 @@
         <v>Fail</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="str">
         <v>Login was unsuccessful</v>
@@ -1350,7 +1350,7 @@
         <v>Fail</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="str">
         <v>Login was unsuccessful</v>
@@ -1379,7 +1379,7 @@
         <v>Fail</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="str">
         <v>Login was unsuccessful</v>
@@ -1408,7 +1408,7 @@
         <v>Fail</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1434,7 +1434,7 @@
         <v>Fail</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1460,7 +1460,7 @@
         <v>Fail</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1486,7 +1486,7 @@
         <v>Fail</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1512,7 +1512,7 @@
         <v>Fail</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="str">
         <v>Login was unsuccessful</v>
@@ -1541,7 +1541,7 @@
         <v>Fail</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="str">
         <v>Login was unsuccessful</v>
@@ -1570,7 +1570,7 @@
         <v>Pass</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1596,7 +1596,7 @@
         <v>Pass</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1622,7 +1622,7 @@
         <v>Fail</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1648,7 +1648,7 @@
         <v>Fail</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1674,7 +1674,7 @@
         <v>Fail</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1700,7 +1700,7 @@
         <v>Fail</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1726,7 +1726,7 @@
         <v>Fail</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="str">
         <v>Login was unsuccessful</v>
@@ -1755,7 +1755,7 @@
         <v>Fail</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="str">
         <v>Sorry, you have been blocked</v>
@@ -1784,7 +1784,7 @@
         <v>Fail</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="str">
         <v>Login was unsuccessful</v>
@@ -1813,7 +1813,7 @@
         <v>Fail</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="str">
         <v>Login was unsuccessful</v>
@@ -1842,7 +1842,7 @@
         <v>Fail</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1868,7 +1868,7 @@
         <v>Fail</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1894,7 +1894,7 @@
         <v>Fail</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1920,7 +1920,7 @@
         <v>Fail</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1946,7 +1946,7 @@
         <v>Fail</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="str">
         <v>Login was unsuccessful</v>

--- a/test-data/loginpage1data.xlsx
+++ b/test-data/loginpage1data.xlsx
@@ -456,6 +456,9 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -502,6 +505,9 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
       <c r="G4" t="str">
         <v>Fail</v>
       </c>
@@ -548,6 +554,9 @@
       <c r="B6" t="str">
         <v>Negative - Empty Email</v>
       </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
       <c r="D6" t="str">
         <v>admin</v>
       </c>
@@ -577,6 +586,9 @@
       <c r="C7" t="str">
         <v>admin@yourstore.com</v>
       </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
@@ -600,6 +612,12 @@
       <c r="B8" t="str">
         <v>Negative - Both Empty</v>
       </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
@@ -641,6 +659,9 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -696,6 +717,9 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -722,6 +746,9 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -748,6 +775,9 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -774,6 +804,9 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -798,7 +831,10 @@
         <v>Fail</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -826,6 +862,9 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -852,6 +891,9 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -878,6 +920,9 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -991,6 +1036,9 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1017,6 +1065,9 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1043,6 +1094,9 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1185,6 +1239,9 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1211,6 +1268,9 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
@@ -1238,6 +1298,9 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1410,6 +1473,9 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1436,6 +1502,9 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1462,6 +1531,9 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1488,6 +1560,9 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1567,10 +1642,13 @@
         <v>Pass</v>
       </c>
       <c r="G43" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
+      </c>
+      <c r="I43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1593,10 +1671,13 @@
         <v>Pass</v>
       </c>
       <c r="G44" t="str">
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1622,7 +1703,10 @@
         <v>Fail</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1648,7 +1732,10 @@
         <v>Fail</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1674,7 +1761,10 @@
         <v>Fail</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1700,7 +1790,10 @@
         <v>Fail</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1726,7 +1819,7 @@
         <v>Fail</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="str">
         <v>Login was unsuccessful</v>
@@ -1755,7 +1848,7 @@
         <v>Fail</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="str">
         <v>Sorry, you have been blocked</v>
@@ -1784,7 +1877,7 @@
         <v>Fail</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="str">
         <v>Login was unsuccessful</v>
@@ -1813,7 +1906,7 @@
         <v>Fail</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="str">
         <v>Login was unsuccessful</v>
@@ -1842,7 +1935,10 @@
         <v>Fail</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1868,7 +1964,10 @@
         <v>Fail</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I54" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
@@ -1894,7 +1993,10 @@
         <v>Fail</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -1920,7 +2022,10 @@
         <v>Fail</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -1946,7 +2051,7 @@
         <v>Fail</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="str">
         <v>Login was unsuccessful</v>

--- a/test-data/loginpage1data.xlsx
+++ b/test-data/loginpage1data.xlsx
@@ -1703,7 +1703,7 @@
         <v>Fail</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="str">
         <v/>
@@ -1732,7 +1732,7 @@
         <v>Fail</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="str">
         <v/>
@@ -1761,7 +1761,7 @@
         <v>Fail</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="str">
         <v/>
@@ -1848,7 +1848,7 @@
         <v>Fail</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="str">
         <v>Sorry, you have been blocked</v>
@@ -1877,7 +1877,7 @@
         <v>Fail</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="str">
         <v>Login was unsuccessful</v>
@@ -1906,7 +1906,7 @@
         <v>Fail</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="str">
         <v>Login was unsuccessful</v>
@@ -1935,7 +1935,7 @@
         <v>Fail</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="str">
         <v/>
@@ -1964,7 +1964,7 @@
         <v>Fail</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="str">
         <v/>
@@ -1993,7 +1993,7 @@
         <v>Fail</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="str">
         <v/>
@@ -2022,7 +2022,7 @@
         <v>Fail</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="str">
         <v/>
@@ -2051,7 +2051,7 @@
         <v>Fail</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="str">
         <v>Login was unsuccessful</v>
